--- a/Gestion Stock 2024/Gestion de Stock Zoubiria/Suivie pose Compteur Zoubiria 2024.xlsx
+++ b/Gestion Stock 2024/Gestion de Stock Zoubiria/Suivie pose Compteur Zoubiria 2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="315" yWindow="195" windowWidth="6900" windowHeight="2025" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="315" yWindow="195" windowWidth="6900" windowHeight="2025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2024" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="543">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -1942,6 +1942,12 @@
   </si>
   <si>
     <t>NB(056/2024)</t>
+  </si>
+  <si>
+    <t>132239</t>
+  </si>
+  <si>
+    <t>132192</t>
   </si>
 </sst>
 </file>
@@ -8307,7 +8313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F46" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
@@ -12543,8 +12549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14016,7 +14022,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>20</v>
@@ -18868,7 +18874,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19077,7 +19083,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>291</v>
